--- a/data/stock_solutions_solubility.xlsx
+++ b/data/stock_solutions_solubility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tradivojevic_1/Documents/Code/Python/media_compiler/data/flaviolin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tradivojevic_1/Documents/Code/Python/Flaviolin_media_opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6625715-7EB6-9D46-9F2B-BB974BEEC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC7B09-C557-B74F-9A65-D535F1942728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30760" yWindow="3560" windowWidth="17140" windowHeight="16580" xr2:uid="{828462E9-86E4-F249-9DE4-43AAE173E389}"/>
+    <workbookView xWindow="12600" yWindow="3940" windowWidth="17140" windowHeight="16580" xr2:uid="{828462E9-86E4-F249-9DE4-43AAE173E389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Components</t>
   </si>
@@ -59,15 +59,9 @@
     <t>NH4Cl</t>
   </si>
   <si>
-    <t>MgCl2</t>
-  </si>
-  <si>
     <t>NaCl</t>
   </si>
   <si>
-    <t>MnSO4</t>
-  </si>
-  <si>
     <t>Molar Mass [g/mol]</t>
   </si>
   <si>
@@ -86,15 +80,6 @@
     <t>(NH4)6Mo7O24*4H2O</t>
   </si>
   <si>
-    <t>CoCl2 * 6H2O</t>
-  </si>
-  <si>
-    <t>CuSO4 * 5H2O</t>
-  </si>
-  <si>
-    <t>ZnSO4 * 7H2O</t>
-  </si>
-  <si>
     <t>at 10C</t>
   </si>
   <si>
@@ -110,26 +95,68 @@
     <t>https://inchem.org/documents/icsc/icsc/eics1051.htm</t>
   </si>
   <si>
-    <t>at 7C</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Copper-sulfate-pentahydrate#section=Solubility</t>
-  </si>
-  <si>
     <t>https://inchem.org/documents/icsc/icsc/eics0349.htm</t>
   </si>
   <si>
     <t>https://www.scbt.com/p/calcium-chloride-dihydrate-10035-04-8#:~:text=Solubility%20%3A,(147%20mg%2FmL).</t>
   </si>
   <si>
-    <t>at 5C</t>
+    <t>MgCl2*6H20</t>
+  </si>
+  <si>
+    <t>CoCl2*6H2O</t>
+  </si>
+  <si>
+    <t>CuSO4*5H2O</t>
+  </si>
+  <si>
+    <t>MnSO4*1H20</t>
+  </si>
+  <si>
+    <t>ZnSO4*7H2O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Manganese-sulfate-monohydrate#section=Melting-Point</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Sodium-chloride#section=Solubility</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Magnesium_chloride</t>
+  </si>
+  <si>
+    <t>https://inchem.org/documents/icsc/icsc/eics1416.htm</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ammonium_heptamolybdate</t>
+  </si>
+  <si>
+    <t>https://www.scbt.com/p/tricine-5704-04-1</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Boric-acid#section=Solubility</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glucose</t>
+  </si>
+  <si>
+    <t>https://www.scbt.com/p/potassium-phosphate-dibasic-anhydrous-7758-11-4</t>
+  </si>
+  <si>
+    <t>https://inchem.org/documents/icsc/icsc/eics1451.htm</t>
+  </si>
+  <si>
+    <t>https://fscimage.fishersci.com/msds/05345.htm</t>
+  </si>
+  <si>
+    <t>https://www.chemicalbook.com/ChemicalProductProperty_EN_CB9232125.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +178,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,19 +204,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,7 +535,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,20 +551,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>500</v>
       </c>
       <c r="C2" s="1">
@@ -541,7 +579,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>89.6</v>
       </c>
       <c r="C3" s="1">
@@ -552,32 +590,38 @@
         <v>500.08371937266287</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>34.9</v>
+      <c r="B4" s="5">
+        <v>47.2</v>
       </c>
       <c r="C4" s="1">
         <v>61.83</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>564.45091379589201</v>
+        <v>763.38347080705159</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>909</v>
       </c>
       <c r="C5" s="1">
@@ -588,68 +632,80 @@
         <v>5045.6271231599276</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>111</v>
+      <c r="B6" s="5">
+        <v>120</v>
       </c>
       <c r="C6" s="1">
-        <v>174.25899999999999</v>
+        <v>174.3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>636.98288180237466</v>
+        <v>688.46815834767642</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1492.5</v>
+      <c r="B7" s="5">
+        <v>1600</v>
       </c>
       <c r="C7" s="1">
-        <v>174.25899999999999</v>
+        <v>174.18</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>8564.837397207606</v>
+        <v>9185.8996440463889</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>256</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
+        <v>400</v>
       </c>
       <c r="C8" s="3">
         <v>278.02</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>920.79706495935545</v>
+        <v>1438.7454139989929</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>283</v>
       </c>
       <c r="C9" s="1">
@@ -660,33 +716,36 @@
         <v>5290.7085436530188</v>
       </c>
       <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" s="5">
-        <v>52.9</v>
+        <v>2350</v>
       </c>
       <c r="C10" s="5">
-        <v>95.21</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>555.61390610230023</v>
+        <v>203.31</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>11558.703457773843</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -699,14 +758,17 @@
         <v>6160.1642710472279</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
         <v>653</v>
       </c>
       <c r="C12" s="1">
@@ -716,28 +778,34 @@
         <f t="shared" si="0"/>
         <v>528.37700063113948</v>
       </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>450</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>770</v>
       </c>
       <c r="C13" s="1">
         <v>237.93</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1891.3125709242213</v>
+        <v>3236.2459546925566</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>317</v>
@@ -750,33 +818,33 @@
         <v>1269.6251201537968</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
+      <c r="A15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="5">
-        <v>520</v>
+        <v>762</v>
       </c>
       <c r="C15" s="5">
-        <v>151.001</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>3443.6858034052752</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
+        <v>169.02</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>4508.3422080227192</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>540</v>
@@ -789,15 +857,15 @@
         <v>1878.0648975759052</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
         <v>147</v>
@@ -810,7 +878,7 @@
         <v>999.86396408651876</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,6 +888,14 @@
       <c r="D18" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{781CAAD3-7FE0-6148-81B8-96E3B7BD87BD}"/>
+    <hyperlink ref="F11" r:id="rId2" location="section=Solubility" xr:uid="{915DC349-7760-2F47-A07A-6A46EAE19795}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{32DF2031-C90B-0640-A1C2-D09EC05E3E7E}"/>
+    <hyperlink ref="F15" r:id="rId4" location="section=Melting-Point" xr:uid="{471D5E8C-D56E-A242-B359-68329AE82D58}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{7D362144-C20B-D548-A160-F6E0D972BA47}"/>
+    <hyperlink ref="F17" r:id="rId6" location=":~:text=Solubility%20%3A,(147%20mg%2FmL)." xr:uid="{E292F562-1370-2341-98EA-95C3B29293CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
